--- a/Monthly.xlsx
+++ b/Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5E85F4-BA4F-4586-B969-E1ABB99F24A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D79B219-42EE-41FF-B621-74A75DE19746}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="1" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -84,6 +84,27 @@
   </si>
   <si>
     <t>火</t>
+  </si>
+  <si>
+    <t>週六</t>
+  </si>
+  <si>
+    <t>週日</t>
+  </si>
+  <si>
+    <t>週一</t>
+  </si>
+  <si>
+    <t>週二</t>
+  </si>
+  <si>
+    <t>週三</t>
+  </si>
+  <si>
+    <t>週四</t>
+  </si>
+  <si>
+    <t>週五</t>
   </si>
 </sst>
 </file>
@@ -534,7 +555,7 @@
   <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1253,7 +1274,7 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1263,94 +1284,94 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="C1" s="2">
-        <v>43587</v>
+        <v>43618</v>
       </c>
       <c r="D1" s="2">
-        <v>43588</v>
+        <v>43619</v>
       </c>
       <c r="E1" s="2">
-        <v>43589</v>
+        <v>43620</v>
       </c>
       <c r="F1" s="2">
-        <v>43590</v>
+        <v>43621</v>
       </c>
       <c r="G1" s="2">
-        <v>43591</v>
+        <v>43622</v>
       </c>
       <c r="H1" s="2">
-        <v>43592</v>
+        <v>43623</v>
       </c>
       <c r="I1" s="2">
-        <v>43593</v>
+        <v>43624</v>
       </c>
       <c r="J1" s="2">
-        <v>43594</v>
+        <v>43625</v>
       </c>
       <c r="K1" s="2">
-        <v>43595</v>
+        <v>43626</v>
       </c>
       <c r="L1" s="2">
-        <v>43596</v>
+        <v>43627</v>
       </c>
       <c r="M1" s="2">
-        <v>43597</v>
+        <v>43628</v>
       </c>
       <c r="N1" s="2">
-        <v>43598</v>
+        <v>43629</v>
       </c>
       <c r="O1" s="2">
-        <v>43599</v>
+        <v>43630</v>
       </c>
       <c r="P1" s="2">
-        <v>43600</v>
+        <v>43631</v>
       </c>
       <c r="Q1" s="2">
-        <v>43601</v>
+        <v>43632</v>
       </c>
       <c r="R1" s="2">
-        <v>43602</v>
+        <v>43633</v>
       </c>
       <c r="S1" s="2">
-        <v>43603</v>
+        <v>43634</v>
       </c>
       <c r="T1" s="2">
-        <v>43604</v>
+        <v>43635</v>
       </c>
       <c r="U1" s="2">
-        <v>43605</v>
+        <v>43636</v>
       </c>
       <c r="V1" s="2">
-        <v>43606</v>
+        <v>43637</v>
       </c>
       <c r="W1" s="2">
-        <v>43607</v>
+        <v>43638</v>
       </c>
       <c r="X1" s="2">
-        <v>43608</v>
+        <v>43639</v>
       </c>
       <c r="Y1" s="2">
-        <v>43609</v>
+        <v>43640</v>
       </c>
       <c r="Z1" s="2">
-        <v>43610</v>
+        <v>43641</v>
       </c>
       <c r="AA1" s="2">
-        <v>43611</v>
+        <v>43642</v>
       </c>
       <c r="AB1" s="2">
-        <v>43612</v>
+        <v>43643</v>
       </c>
       <c r="AC1" s="2">
-        <v>43613</v>
+        <v>43644</v>
       </c>
       <c r="AD1" s="2">
-        <v>43614</v>
+        <v>43645</v>
       </c>
       <c r="AE1" s="2">
-        <v>43615</v>
+        <v>43646</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -1358,94 +1379,94 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -1453,94 +1474,94 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G3" s="4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3" s="4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I3" s="4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J3" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K3" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L3" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M3" s="4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N3" s="4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O3" s="4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P3" s="4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R3" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="S3" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T3" s="4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U3" s="4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="V3" s="4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W3" s="4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="X3" s="4">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y3" s="4">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z3" s="4">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA3" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AB3" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AC3" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AD3" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE3" s="4">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -1548,22 +1569,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="6">
         <v>1</v>
@@ -1578,10 +1599,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="6">
         <v>1</v>
@@ -1599,10 +1620,10 @@
         <v>1</v>
       </c>
       <c r="S4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="6">
         <v>1</v>
@@ -1620,10 +1641,10 @@
         <v>1</v>
       </c>
       <c r="Z4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="6">
         <v>1</v>
@@ -1642,36 +1663,96 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1679,7 +1760,9 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1714,34 +1797,118 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:AE7" si="0">IF(AND(D5&lt;&gt;TIME(0,0,0),D6 &lt;&gt; ""),D6+D5+TIME(1,0,0),"")</f>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:31" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
@@ -1749,7 +1916,7 @@
       </c>
       <c r="C8" s="8">
         <f>SUM(B5:AE5)</f>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly.xlsx
+++ b/Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D79B219-42EE-41FF-B621-74A75DE19746}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B63F28-DB4F-462F-AC57-44663AFE35B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="1" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
@@ -1274,7 +1274,7 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1388,37 +1388,37 @@
         <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>15</v>
@@ -1590,10 +1590,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="6">
         <v>1</v>
@@ -1673,16 +1673,16 @@
         <v>0.3125</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="G5" s="7">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -1690,20 +1690,18 @@
       <c r="J5" s="7">
         <v>0</v>
       </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
+      <c r="K5" s="7"/>
       <c r="L5" s="7">
-        <v>0</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>0.34375</v>
       </c>
       <c r="O5" s="7">
-        <v>0</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="P5" s="7">
         <v>0</v>
@@ -1763,17 +1761,33 @@
       <c r="D6" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="E6" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.375</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="L6" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1801,21 +1815,21 @@
         <f t="shared" ref="D7:AE7" si="0">IF(AND(D5&lt;&gt;TIME(0,0,0),D6 &lt;&gt; ""),D6+D5+TIME(1,0,0),"")</f>
         <v>0.77083333333333337</v>
       </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1829,21 +1843,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
       </c>
       <c r="P7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1916,7 +1930,7 @@
       </c>
       <c r="C8" s="8">
         <f>SUM(B5:AE5)</f>
-        <v>0.3125</v>
+        <v>2.947916666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly.xlsx
+++ b/Monthly.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B63F28-DB4F-462F-AC57-44663AFE35B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC0A869-785D-4A58-9047-337C61896F37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="1" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="2" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
     <sheet name="June" sheetId="2" r:id="rId2"/>
+    <sheet name="July" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="23">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -105,6 +106,10 @@
   </si>
   <si>
     <t>週五</t>
+  </si>
+  <si>
+    <t>休み</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1273,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121C76C5-9772-435C-90D8-D1408862B8E2}">
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1710,19 +1715,19 @@
         <v>0</v>
       </c>
       <c r="R5" s="7">
-        <v>0</v>
+        <v>0.34375000000000006</v>
       </c>
       <c r="S5" s="7">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T5" s="7">
-        <v>0</v>
+        <v>0.34375</v>
       </c>
       <c r="U5" s="7">
-        <v>0</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="V5" s="7">
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="W5" s="7">
         <v>0</v>
@@ -1730,20 +1735,18 @@
       <c r="X5" s="7">
         <v>0</v>
       </c>
-      <c r="Y5" s="7">
-        <v>0</v>
-      </c>
+      <c r="Y5" s="7"/>
       <c r="Z5" s="7">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="AA5" s="7">
-        <v>0</v>
+        <v>0.28125</v>
       </c>
       <c r="AB5" s="7">
-        <v>0</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="AC5" s="7">
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="AD5" s="7">
         <v>0</v>
@@ -1775,7 +1778,9 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="L6" s="1">
         <v>0.40625</v>
       </c>
@@ -1790,18 +1795,38 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="R6" s="1">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.375</v>
+      </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
+      <c r="Y6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0.4375</v>
+      </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
@@ -1867,25 +1892,25 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="U7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="R7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333326</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333326</v>
       </c>
       <c r="W7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1899,21 +1924,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Z7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AA7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AB7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="Z7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="AC7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
       </c>
       <c r="AD7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1930,7 +1955,698 @@
       </c>
       <c r="C8" s="8">
         <f>SUM(B5:AE5)</f>
-        <v>2.947916666666667</v>
+        <v>5.8784722222222232</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20871C9-F327-4B07-BA4F-127D1C7AB086}">
+  <dimension ref="A1:AE8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>43617</v>
+      </c>
+      <c r="C1" s="2">
+        <v>43618</v>
+      </c>
+      <c r="D1" s="2">
+        <v>43619</v>
+      </c>
+      <c r="E1" s="2">
+        <v>43620</v>
+      </c>
+      <c r="F1" s="2">
+        <v>43621</v>
+      </c>
+      <c r="G1" s="2">
+        <v>43622</v>
+      </c>
+      <c r="H1" s="2">
+        <v>43623</v>
+      </c>
+      <c r="I1" s="2">
+        <v>43624</v>
+      </c>
+      <c r="J1" s="2">
+        <v>43625</v>
+      </c>
+      <c r="K1" s="2">
+        <v>43626</v>
+      </c>
+      <c r="L1" s="2">
+        <v>43627</v>
+      </c>
+      <c r="M1" s="2">
+        <v>43628</v>
+      </c>
+      <c r="N1" s="2">
+        <v>43629</v>
+      </c>
+      <c r="O1" s="2">
+        <v>43630</v>
+      </c>
+      <c r="P1" s="2">
+        <v>43631</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>43632</v>
+      </c>
+      <c r="R1" s="2">
+        <v>43633</v>
+      </c>
+      <c r="S1" s="2">
+        <v>43634</v>
+      </c>
+      <c r="T1" s="2">
+        <v>43635</v>
+      </c>
+      <c r="U1" s="2">
+        <v>43636</v>
+      </c>
+      <c r="V1" s="2">
+        <v>43637</v>
+      </c>
+      <c r="W1" s="2">
+        <v>43638</v>
+      </c>
+      <c r="X1" s="2">
+        <v>43639</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>43640</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>43641</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>43642</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>43643</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>43644</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>43645</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4">
+        <v>24</v>
+      </c>
+      <c r="K3" s="4">
+        <v>24</v>
+      </c>
+      <c r="L3" s="4">
+        <v>24</v>
+      </c>
+      <c r="M3" s="4">
+        <v>24</v>
+      </c>
+      <c r="N3" s="4">
+        <v>24</v>
+      </c>
+      <c r="O3" s="4">
+        <v>24</v>
+      </c>
+      <c r="P3" s="4">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>25</v>
+      </c>
+      <c r="R3" s="4">
+        <v>25</v>
+      </c>
+      <c r="S3" s="4">
+        <v>25</v>
+      </c>
+      <c r="T3" s="4">
+        <v>25</v>
+      </c>
+      <c r="U3" s="4">
+        <v>25</v>
+      </c>
+      <c r="V3" s="4">
+        <v>25</v>
+      </c>
+      <c r="W3" s="4">
+        <v>25</v>
+      </c>
+      <c r="X3" s="4">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>26</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>1</v>
+      </c>
+      <c r="R4" s="6">
+        <v>1</v>
+      </c>
+      <c r="S4" s="6">
+        <v>1</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1</v>
+      </c>
+      <c r="U4" s="6">
+        <v>1</v>
+      </c>
+      <c r="V4" s="6">
+        <v>1</v>
+      </c>
+      <c r="W4" s="6">
+        <v>1</v>
+      </c>
+      <c r="X4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0.34375</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0.34375000000000006</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0.34375</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>0.28125</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:AE7" si="0">IF(AND(D5&lt;&gt;TIME(0,0,0),D6 &lt;&gt; ""),D6+D5+TIME(1,0,0),"")</f>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333326</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333326</v>
+      </c>
+      <c r="W7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="AC7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="AD7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <f>SUM(B5:AE5)</f>
+        <v>5.8993055555555562</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly.xlsx
+++ b/Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC0A869-785D-4A58-9047-337C61896F37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA8C876-FAEE-4F0A-936D-8091F2A2FF51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="2" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="23">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1967,32 +1967,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20871C9-F327-4B07-BA4F-127D1C7AB086}">
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="C1" s="2">
-        <v>43618</v>
+        <v>43648</v>
       </c>
       <c r="D1" s="2">
-        <v>43619</v>
+        <v>43649</v>
       </c>
       <c r="E1" s="2">
-        <v>43620</v>
+        <v>43650</v>
       </c>
       <c r="F1" s="2">
-        <v>43621</v>
+        <v>43651</v>
       </c>
       <c r="G1" s="2">
         <v>43622</v>
@@ -2069,198 +2069,155 @@
       <c r="AE1" s="2">
         <v>43646</v>
       </c>
+      <c r="AF1" s="2">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F3" s="4">
-        <v>23</v>
-      </c>
-      <c r="G3" s="4">
-        <v>23</v>
-      </c>
-      <c r="H3" s="4">
-        <v>23</v>
-      </c>
-      <c r="I3" s="4">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4">
-        <v>24</v>
-      </c>
-      <c r="K3" s="4">
-        <v>24</v>
-      </c>
-      <c r="L3" s="4">
-        <v>24</v>
-      </c>
-      <c r="M3" s="4">
-        <v>24</v>
-      </c>
-      <c r="N3" s="4">
-        <v>24</v>
-      </c>
-      <c r="O3" s="4">
-        <v>24</v>
-      </c>
-      <c r="P3" s="4">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>25</v>
-      </c>
-      <c r="R3" s="4">
-        <v>25</v>
-      </c>
-      <c r="S3" s="4">
-        <v>25</v>
-      </c>
-      <c r="T3" s="4">
-        <v>25</v>
-      </c>
-      <c r="U3" s="4">
-        <v>25</v>
-      </c>
-      <c r="V3" s="4">
-        <v>25</v>
-      </c>
-      <c r="W3" s="4">
-        <v>25</v>
-      </c>
-      <c r="X3" s="4">
-        <v>26</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>26</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>26</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>26</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>26</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>26</v>
-      </c>
-      <c r="AE3" s="4">
         <v>27</v>
       </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2279,374 +2236,183 @@
       <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>1</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6">
-        <v>1</v>
-      </c>
-      <c r="N4" s="6">
-        <v>1</v>
-      </c>
-      <c r="O4" s="6">
-        <v>1</v>
-      </c>
-      <c r="P4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>1</v>
-      </c>
-      <c r="R4" s="6">
-        <v>1</v>
-      </c>
-      <c r="S4" s="6">
-        <v>1</v>
-      </c>
-      <c r="T4" s="6">
-        <v>1</v>
-      </c>
-      <c r="U4" s="6">
-        <v>1</v>
-      </c>
-      <c r="V4" s="6">
-        <v>1</v>
-      </c>
-      <c r="W4" s="6">
-        <v>1</v>
-      </c>
-      <c r="X4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="6">
-        <v>1</v>
-      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>0</v>
+        <v>0.27083333333333337</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D5" s="7">
         <v>0.3125</v>
       </c>
       <c r="E5" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="F5" s="7">
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="G5" s="7">
         <v>0.3125</v>
       </c>
-      <c r="H5" s="7">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="7">
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0.34375</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0.34375000000000006</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0.34375</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0.36805555555555558</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0.35416666666666663</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0</v>
-      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="7">
-        <v>0.3125</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>0.28125</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>0.3125</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>0</v>
-      </c>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="D6" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E6" s="1">
-        <v>0.3888888888888889</v>
-      </c>
       <c r="F6" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.375</v>
-      </c>
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.40625</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.40625</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.39583333333333331</v>
-      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0.40625</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0.375</v>
-      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0.4375</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0.40625</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0.4375</v>
-      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1">
+        <f t="shared" ref="B7:AE7" si="0">IF(AND(B5&lt;&gt;TIME(0,0,0),B6 &lt;&gt; ""),B6+B5+TIME(1,0,0),"")</f>
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74999999999999989</v>
+      </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:AE7" si="0">IF(AND(D5&lt;&gt;TIME(0,0,0),D6 &lt;&gt; ""),D6+D5+TIME(1,0,0),"")</f>
-        <v>0.77083333333333337</v>
+        <f t="shared" si="0"/>
+        <v>0.78124999999999989</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0.76388888888888884</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.74999999999999989</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="P7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.77083333333333326</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.80555555555555547</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.77083333333333326</v>
-      </c>
-      <c r="W7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Y7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Z7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="AA7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="AB7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.74999999999999989</v>
-      </c>
-      <c r="AC7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="AD7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AE7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
     </row>
-    <row r="8" spans="1:31" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="8">
         <f>SUM(B5:AE5)</f>
-        <v>5.8993055555555562</v>
+        <v>1.4479166666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly.xlsx
+++ b/Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA8C876-FAEE-4F0A-936D-8091F2A2FF51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95387985-0DC0-471F-82D6-B690E85E7ABC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="2" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="23">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -212,7 +212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +242,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1967,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20871C9-F327-4B07-BA4F-127D1C7AB086}">
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1980,34 +1983,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>43647</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2">
-        <v>43648</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2">
-        <v>43649</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2">
-        <v>43650</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2">
-        <v>43651</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2">
-        <v>43622</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2">
-        <v>43623</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2">
-        <v>43624</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2">
-        <v>43625</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2">
-        <v>43626</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2">
         <v>43627</v>
@@ -2078,34 +2081,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>20</v>
@@ -2173,246 +2176,240 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>27</v>
-      </c>
-      <c r="C3" s="4">
-        <v>27</v>
-      </c>
-      <c r="D3" s="4">
-        <v>27</v>
-      </c>
-      <c r="E3" s="4">
-        <v>27</v>
-      </c>
-      <c r="F3" s="4">
-        <v>27</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.27083333333333337</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="10">
+        <v>0.3125</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.27083333333333337</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.3125</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.3125</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:AF5" si="0">IF(AND(B3&lt;&gt;TIME(0,0,0),B4 &lt;&gt; ""),B4+B3+TIME(1,0,0),"")</f>
+        <v>0.75</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.4375</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" ref="B7:AE7" si="0">IF(AND(B5&lt;&gt;TIME(0,0,0),B6 &lt;&gt; ""),B6+B5+TIME(1,0,0),"")</f>
-        <v>0.75</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.74999999999999989</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.78124999999999989</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.78124999999999989</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-    </row>
-    <row r="8" spans="1:32" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
+    <row r="6" spans="1:32" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8">
-        <f>SUM(B5:AE5)</f>
-        <v>1.4479166666666667</v>
+      <c r="C6" s="8">
+        <f>SUM(B3:AE3)</f>
+        <v>2.09375</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly.xlsx
+++ b/Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95387985-0DC0-471F-82D6-B690E85E7ABC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD6CF12-D086-4500-81DC-D9291C141409}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="2" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
@@ -1972,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20871C9-F327-4B07-BA4F-127D1C7AB086}">
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2013,10 +2013,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="2">
-        <v>43627</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2">
-        <v>43628</v>
+        <v>12</v>
       </c>
       <c r="N1" s="2">
         <v>43629</v>
@@ -2081,34 +2081,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>20</v>
@@ -2179,7 +2179,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="7">
-        <v>0.27083333333333337</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="C3" s="7">
         <v>0.25</v>
@@ -2202,7 +2202,9 @@
       <c r="K3" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -2252,7 +2254,9 @@
       <c r="K4" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -2280,7 +2284,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ref="B5:AF5" si="0">IF(AND(B3&lt;&gt;TIME(0,0,0),B4 &lt;&gt; ""),B4+B3+TIME(1,0,0),"")</f>
-        <v>0.75</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -2318,9 +2322,9 @@
         <f t="shared" si="0"/>
         <v>0.79166666666666663</v>
       </c>
-      <c r="L5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79166666666666663</v>
       </c>
       <c r="M5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2409,7 +2413,7 @@
       </c>
       <c r="C6" s="8">
         <f>SUM(B3:AE3)</f>
-        <v>2.09375</v>
+        <v>2.4270833333333335</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly.xlsx
+++ b/Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD6CF12-D086-4500-81DC-D9291C141409}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90463168-1724-4C7D-BAB1-43229239A8EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="2" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
@@ -1973,7 +1973,7 @@
   <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2019,25 +2019,25 @@
         <v>12</v>
       </c>
       <c r="N1" s="2">
-        <v>43629</v>
+        <v>13</v>
       </c>
       <c r="O1" s="2">
-        <v>43630</v>
+        <v>14</v>
       </c>
       <c r="P1" s="2">
-        <v>43631</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2">
-        <v>43632</v>
+        <v>16</v>
       </c>
       <c r="R1" s="2">
-        <v>43633</v>
+        <v>17</v>
       </c>
       <c r="S1" s="2">
-        <v>43634</v>
+        <v>18</v>
       </c>
       <c r="T1" s="2">
-        <v>43635</v>
+        <v>19</v>
       </c>
       <c r="U1" s="2">
         <v>43636</v>
@@ -2081,61 +2081,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>15</v>
@@ -2209,22 +2209,44 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+      <c r="Q3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
+      <c r="W3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X3" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
+      <c r="AE3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2261,10 +2283,18 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="Q4" s="1">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -2342,21 +2372,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="Q5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78124999999999989</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333326</v>
       </c>
       <c r="U5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2412,8 +2442,8 @@
         <v>7</v>
       </c>
       <c r="C6" s="8">
-        <f>SUM(B3:AE3)</f>
-        <v>2.4270833333333335</v>
+        <f>SUM(B3:AF3)</f>
+        <v>5.989583333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly.xlsx
+++ b/Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90463168-1724-4C7D-BAB1-43229239A8EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73CCE23-315A-474F-AD0A-4D24487D2F41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="2" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
@@ -1972,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20871C9-F327-4B07-BA4F-127D1C7AB086}">
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2297,7 +2297,9 @@
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
+      <c r="W4" s="1">
+        <v>0.40625</v>
+      </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
@@ -2396,9 +2398,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="W5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78124999999999989</v>
       </c>
       <c r="X5" s="1" t="str">
         <f t="shared" si="0"/>

--- a/Monthly.xlsx
+++ b/Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73CCE23-315A-474F-AD0A-4D24487D2F41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53230D44-A1C4-4795-9394-E64E5B7D268A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="2" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="28">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -109,6 +109,29 @@
   </si>
   <si>
     <t>休み</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K＝休日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y＝有休</t>
+    <rPh sb="2" eb="4">
+      <t>ゆうきゅう</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +147,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -137,7 +160,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -566,9 +589,9 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +689,7 @@
         <v>43616</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -764,7 +787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -862,7 +885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -960,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1058,7 +1081,7 @@
         <v>0.3888888888888889</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1132,7 +1155,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1261,7 +1284,7 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -1285,9 +1308,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1382,7 +1405,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +1500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1572,7 +1595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1667,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1758,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1833,7 +1856,7 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1952,7 +1975,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -1970,15 +1993,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20871C9-F327-4B07-BA4F-127D1C7AB086}">
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2040,22 +2063,22 @@
         <v>19</v>
       </c>
       <c r="U1" s="2">
-        <v>43636</v>
+        <v>20</v>
       </c>
       <c r="V1" s="2">
-        <v>43637</v>
+        <v>21</v>
       </c>
       <c r="W1" s="2">
-        <v>43638</v>
+        <v>22</v>
       </c>
       <c r="X1" s="2">
-        <v>43639</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="2">
-        <v>43640</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="2">
-        <v>43641</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="2">
         <v>43642</v>
@@ -2076,7 +2099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2138,43 +2161,43 @@
         <v>10</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2195,7 +2218,9 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="J3" s="10">
         <v>0.3125</v>
       </c>
@@ -2205,10 +2230,14 @@
       <c r="L3" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="Q3" s="7">
         <v>0.33333333333333331</v>
       </c>
@@ -2227,28 +2256,30 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="X3" s="7">
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="Y3" s="7">
         <v>0.33333333333333331</v>
       </c>
       <c r="Z3" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="AA3" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
+      <c r="AD3" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="AE3" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="AF3" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.2986111111111111</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2300,17 +2331,29 @@
       <c r="W4" s="1">
         <v>0.40625</v>
       </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
+      <c r="X4" s="1">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0.40625</v>
+      </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
+      <c r="AE4" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0.40972222222222227</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2402,21 +2445,21 @@
         <f t="shared" si="0"/>
         <v>0.78124999999999989</v>
       </c>
-      <c r="X5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Y5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Z5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AA5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="X5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79861111111111105</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74999999999999989</v>
       </c>
       <c r="AB5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2430,22 +2473,31 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AF5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AE5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="8">
         <f>SUM(B3:AF3)</f>
-        <v>5.989583333333333</v>
+        <v>5.9652777777777777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly.xlsx
+++ b/Monthly.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53230D44-A1C4-4795-9394-E64E5B7D268A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA106D3-4E15-4407-A0EA-E44DB5F03F86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="2" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="3" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
     <sheet name="June" sheetId="2" r:id="rId2"/>
     <sheet name="July" sheetId="3" r:id="rId3"/>
+    <sheet name="Aug" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="28">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -143,7 +144,7 @@
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="[h]:mm;\(0\);#"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +172,13 @@
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1995,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20871C9-F327-4B07-BA4F-127D1C7AB086}">
   <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2358,7 +2366,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ref="B5:AF5" si="0">IF(AND(B3&lt;&gt;TIME(0,0,0),B4 &lt;&gt; ""),B4+B3+TIME(1,0,0),"")</f>
+        <f t="shared" ref="B5:AE5" si="0">IF(AND(B3&lt;&gt;TIME(0,0,0),B4 &lt;&gt; ""),B4+B3+TIME(1,0,0),"")</f>
         <v>0.74999999999999989</v>
       </c>
       <c r="C5" s="1">
@@ -2505,4 +2513,460 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECEA859-1296-455E-90D9-21D1B13195D1}">
+  <dimension ref="A1:AF9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:AF5" si="0">IF(AND(B3&lt;&gt;TIME(0,0,0),B4 &lt;&gt; ""),B4+B3+TIME(1,0,0),"")</f>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8">
+        <f>SUM(B3:AF3)</f>
+        <v>1.8645833333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Monthly.xlsx
+++ b/Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA106D3-4E15-4407-A0EA-E44DB5F03F86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C139B3A9-EBD5-41A4-8741-C81A51AA7F13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="3" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
@@ -2520,7 +2520,7 @@
   <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2745,7 +2745,9 @@
       <c r="I3" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="10">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="K3" s="10"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -2793,7 +2795,9 @@
       <c r="I4" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2853,9 +2857,9 @@
         <f t="shared" si="0"/>
         <v>0.79166666666666663</v>
       </c>
-      <c r="J5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="K5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2952,7 +2956,7 @@
       </c>
       <c r="C6" s="8">
         <f>SUM(B3:AF3)</f>
-        <v>1.8645833333333333</v>
+        <v>2.15625</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.4">

--- a/Monthly.xlsx
+++ b/Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C139B3A9-EBD5-41A4-8741-C81A51AA7F13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF820D4-A622-4340-8A19-0E2862BBC6DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="3" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -135,6 +135,20 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>S＝祝日</t>
+    <rPh sb="2" eb="3">
+      <t>いわ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>じつ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -144,7 +158,7 @@
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="[h]:mm;\(0\);#"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +193,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -243,7 +263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -275,6 +295,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2520,7 +2543,7 @@
   <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2751,24 +2774,50 @@
       <c r="K3" s="10"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="N3" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0.3125</v>
+      </c>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
+      <c r="U3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
+      <c r="AA3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.4">
@@ -2801,10 +2850,16 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="P4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -2873,21 +2928,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74999999999999989</v>
       </c>
       <c r="O5" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="P5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78125</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
       </c>
       <c r="R5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2956,7 +3011,7 @@
       </c>
       <c r="C6" s="8">
         <f>SUM(B3:AF3)</f>
-        <v>2.15625</v>
+        <v>6.1041666666666652</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.4">
@@ -2966,11 +3021,12 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Monthly.xlsx
+++ b/Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF820D4-A622-4340-8A19-0E2862BBC6DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A413053-EBB6-4ED7-910B-D150D58ED083}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="3" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="32">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -147,6 +147,14 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>S</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2543,7 +2551,7 @@
   <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2773,7 +2781,9 @@
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="N3" s="7">
         <v>0.3125</v>
       </c>
@@ -2788,18 +2798,20 @@
       </c>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+      <c r="T3" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="U3" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="V3" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="W3" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="X3" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
@@ -2863,10 +2875,18 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
+      <c r="U4" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
@@ -2956,21 +2976,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="W5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="U5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75694444444444431</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="Y5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3011,7 +3031,7 @@
       </c>
       <c r="C6" s="8">
         <f>SUM(B3:AF3)</f>
-        <v>6.1041666666666652</v>
+        <v>6.0104166666666652</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.4">

--- a/Monthly.xlsx
+++ b/Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A413053-EBB6-4ED7-910B-D150D58ED083}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26060308-AAFE-4D34-BB71-FE86A8AEC042}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="3" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
@@ -150,11 +150,11 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>S</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>Y</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>S</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2550,8 +2550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECEA859-1296-455E-90D9-21D1B13195D1}">
   <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2782,7 +2782,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="7">
         <v>0.3125</v>
@@ -2799,7 +2799,7 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U3" s="7">
         <v>0.32291666666666669</v>
@@ -2816,19 +2816,19 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="AB3" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="AC3" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="AD3" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="AE3" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="AF3" s="7"/>
     </row>
@@ -2889,8 +2889,12 @@
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
+      <c r="AA4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0.40972222222222227</v>
+      </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -3000,13 +3004,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AB5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AA5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75347222222222221</v>
       </c>
       <c r="AC5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3031,7 +3035,7 @@
       </c>
       <c r="C6" s="8">
         <f>SUM(B3:AF3)</f>
-        <v>6.0104166666666652</v>
+        <v>5.875</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.4">

--- a/Monthly.xlsx
+++ b/Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26060308-AAFE-4D34-BB71-FE86A8AEC042}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400BFA25-5412-440A-B977-6EA00ECEB32B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="3" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
@@ -2551,7 +2551,7 @@
   <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2822,13 +2822,13 @@
         <v>0.30208333333333331</v>
       </c>
       <c r="AC3" s="7">
-        <v>0.3125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD3" s="7">
-        <v>0.3125</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="AE3" s="7">
-        <v>0.3125</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="AF3" s="7"/>
     </row>
@@ -2895,8 +2895,12 @@
       <c r="AB4" s="1">
         <v>0.40972222222222227</v>
       </c>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
+      <c r="AC4" s="1">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0.40277777777777773</v>
+      </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
     </row>
@@ -3012,13 +3016,13 @@
         <f t="shared" si="0"/>
         <v>0.75347222222222221</v>
       </c>
-      <c r="AC5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AD5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AC5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="AD5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73611111111111105</v>
       </c>
       <c r="AE5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3035,7 +3039,7 @@
       </c>
       <c r="C6" s="8">
         <f>SUM(B3:AF3)</f>
-        <v>5.875</v>
+        <v>5.854166666666667</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.4">

--- a/Monthly.xlsx
+++ b/Monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkTimeChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400BFA25-5412-440A-B977-6EA00ECEB32B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F3C9F1-DA97-40B6-8FCC-009C7037356F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="3" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
@@ -2551,7 +2551,7 @@
   <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2899,9 +2899,11 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="AE4" s="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="AF4" s="1"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
@@ -3022,11 +3024,11 @@
       </c>
       <c r="AD5" s="1">
         <f t="shared" si="0"/>
-        <v>0.73611111111111105</v>
-      </c>
-      <c r="AE5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>0.75</v>
+      </c>
+      <c r="AE5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="AF5" s="1" t="str">
         <f t="shared" si="0"/>
